--- a/ValueSet-HIV.E.DE200.xlsx
+++ b/ValueSet-HIV.E.DE200.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T17:44:13+00:00</t>
+    <t>2024-06-29T18:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
